--- a/experiment result/64_0.4_40_zs0_kappa_lp.xlsx
+++ b/experiment result/64_0.4_40_zs0_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.04439365275730998</v>
+        <v>0.009947650877014668</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0870300810752526</v>
+        <v>0.01446317457359031</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.08234745108986041</v>
+        <v>0.007744009976341139</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.08529585988918978</v>
+        <v>0.02103646303418249</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04958383474693418</v>
+        <v>0.00851864240648772</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1024147445469889</v>
+        <v>0.04226912487457395</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.07228990396048778</v>
+        <v>0.005111657352851815</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.08067625426968959</v>
+        <v>0.02095936007513606</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.07668088575208704</v>
+        <v>0.01580014111642303</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.08583994311969148</v>
+        <v>0.02079545543101276</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1107360974220873</v>
+        <v>0.04125602705461767</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1284950267402695</v>
+        <v>0.03855862003432131</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.07807253541124345</v>
+        <v>0.0120479718028596</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1247472913269927</v>
+        <v>0.02593473343977169</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.07489233419237083</v>
+        <v>0.01878948328644271</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.09636931395715656</v>
+        <v>0.02522617298894404</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1038049663731963</v>
+        <v>0.03736385376202817</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0625750349432283</v>
+        <v>0.001894310230273588</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.07402112264554503</v>
+        <v>0.02215721329535685</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.08221469220221485</v>
+        <v>0.02168692762168677</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.07720284006762272</v>
+        <v>0.01669708318422664</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.06186840108294538</v>
+        <v>0.01025112929984017</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1059075295596035</v>
+        <v>0.02548223347970228</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.04202474427133073</v>
+        <v>0.005714231786076131</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0565977148571814</v>
+        <v>0.007284744590283223</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.09298928507841694</v>
+        <v>0.02683474128272583</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.09974165505366438</v>
+        <v>0.01075755178262025</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.08794047642900246</v>
+        <v>0.01750514639212495</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.07111052580043505</v>
+        <v>0.025935579345831</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.08185608320943977</v>
+        <v>0.01731533895678485</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.04002013461429958</v>
+        <v>0.006810707924723829</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.087163538402833</v>
+        <v>0.005321272808561141</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1435905069115355</v>
+        <v>0.02544175826596489</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.05383512844495648</v>
+        <v>0.007844511690208065</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.06746814893668482</v>
+        <v>0.01453921151228309</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1083123440084874</v>
+        <v>0.03768743708066453</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.05274420874314342</v>
+        <v>0.002487690536963234</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.112344067819778</v>
+        <v>0.02706017962644201</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.04864565745639494</v>
+        <v>0.01402395768058029</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.09551134022898436</v>
+        <v>0.04900212172875992</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.08993497327811675</v>
+        <v>0.03681320417816223</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.06306881976004523</v>
+        <v>0.01065433971993613</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0695550873951223</v>
+        <v>0.01976352815060027</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.07109636596885396</v>
+        <v>0.01274820500700039</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.05857926275333495</v>
+        <v>0.009867154531888056</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1104620782265922</v>
+        <v>0.02924315250166663</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1118471679737369</v>
+        <v>0.03101166662717066</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0651287051750032</v>
+        <v>0.009025714673638888</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1212239240481035</v>
+        <v>0.01747698490353122</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.05551189353868607</v>
+        <v>0.009339573631927603</v>
       </c>
     </row>
   </sheetData>
